--- a/eda/vlsp_chunk/train/column-1-analyze.xlsx
+++ b/eda/vlsp_chunk/train/column-1-analyze.xlsx
@@ -14,27 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>count</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>nhiều, khác, gần, cùng, hơn, lớn, nhỏ, cao, đầu_tiên, sau</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>karaoke, fax, nilông, marketing, bù_loong, tivi, virus, container, dioxin, boy</t>
+    <t>nhiều, khác, gần, cùng, hơn, lớn, nhỏ, cao, đầu tiên, sau</t>
   </si>
   <si>
     <t>C</t>
@@ -55,16 +49,22 @@
     <t>của, trong, với, ở, cho, để, từ, đến, trên, về</t>
   </si>
   <si>
+    <t>FW</t>
+  </si>
+  <si>
+    <t>karaoke, fax, nilông, marketing, bù loong, tivi, virus, radio, website, bêtông</t>
+  </si>
+  <si>
     <t>I</t>
   </si>
   <si>
-    <t>ơi, Ôi, nhé, Thôi, ạ, nhỉ, À, à, thay, ư</t>
+    <t>ơi, Ôi, ạ, nhỉ, Thôi, nhé, À, à, ư, thay</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>những, các, mấy, Những, Các, mọi, một_số, vài, mỗi, Mấy</t>
+    <t>những, các, mấy, Những, Các, mọi, một số, vài, mỗi, Mấy</t>
   </si>
   <si>
     <t>M</t>
@@ -88,7 +88,7 @@
     <t>Np</t>
   </si>
   <si>
-    <t>Hùng, Chương, Việt, Nam, Mỹ, Hà_Nội, Hải, Kim, Thái, Tuấn</t>
+    <t>Hùng, Chương, Việt, Nam, Mỹ, Hà Nội, Hải, Kim, Thái, Tuấn</t>
   </si>
   <si>
     <t>Nu</t>
@@ -100,13 +100,13 @@
     <t>Ny</t>
   </si>
   <si>
-    <t>VN, TP, UBND, ĐL, TB, SV, LĐ, ĐH, CN, CSGT</t>
+    <t>VN, TP, UBND, ĐL, TB, SV, LĐ, CN, ĐH, CSGT</t>
   </si>
   <si>
     <t>P</t>
   </si>
   <si>
-    <t>tôi, này, đó, mình, chúng_tôi, đây, họ, Tôi, nào, cả</t>
+    <t>tôi, này, đó, mình, chúng tôi, đây, họ, Tôi, nào, gì</t>
   </si>
   <si>
     <t>R</t>
@@ -115,12 +115,6 @@
     <t>không, đã, cũng, lại, được, chỉ, ra, đang, sẽ, vẫn</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>phó, trưởng, nguyên, liên, Phó, tổng, cựu, tái, bất, cố</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
@@ -136,19 +130,19 @@
     <t>Vy</t>
   </si>
   <si>
-    <t>PCCC, QLTT</t>
+    <t>QLTT, PCCC</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>như_vậy, làm_sao, như_thế, thế_nào, nhất_là, vì_sao, một_mình, Có_lẽ, ra_sao, tại_sao</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>B, OV_.10, A5</t>
+    <t>như vậy, như thế, làm sao, nhất là, thế nào, vì sao, một mình, Có lẽ, ra sao, tại sao</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>phó, trưởng, nguyên, liên, Phó, cựu, tổng, tái, bất, cố</t>
   </si>
 </sst>
 </file>
@@ -497,7 +491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,231 +514,220 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
         <v>9199</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="n">
-        <v>182</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5844</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
-        <v>5844</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
         <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22315</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="n">
-        <v>22315</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
         <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10276</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="n">
-        <v>10276</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s">
         <v>12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="n">
         <v>96</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="n">
         <v>2852</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="n">
         <v>5721</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="n">
         <v>39221</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="n">
         <v>3754</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="n">
-        <v>6688</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s">
         <v>24</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6694</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="n">
         <v>819</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="n">
         <v>1163</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="n">
         <v>6462</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="n">
         <v>11897</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="n">
-        <v>104</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s">
         <v>34</v>
+      </c>
+      <c r="C17" t="n">
+        <v>995</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="n">
-        <v>995</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s">
         <v>36</v>
+      </c>
+      <c r="C18" t="n">
+        <v>31162</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="n">
-        <v>31162</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s">
         <v>38</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s">
         <v>40</v>
+      </c>
+      <c r="C20" t="n">
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="n">
-        <v>533</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="n">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
+      <c r="C21" t="n">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
